--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H2">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I2">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J2">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>2.715058600843752</v>
+        <v>8.549704541795554</v>
       </c>
       <c r="R2">
-        <v>2.715058600843752</v>
+        <v>76.94734087616</v>
       </c>
       <c r="S2">
-        <v>0.002469764187795828</v>
+        <v>0.004570742523208766</v>
       </c>
       <c r="T2">
-        <v>0.002469764187795828</v>
+        <v>0.004725527004145667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H3">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I3">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J3">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>6.429806675204465</v>
+        <v>16.80737326131733</v>
       </c>
       <c r="R3">
-        <v>6.429806675204465</v>
+        <v>151.266359351856</v>
       </c>
       <c r="S3">
-        <v>0.00584890000382884</v>
+        <v>0.008985360288580385</v>
       </c>
       <c r="T3">
-        <v>0.00584890000382884</v>
+        <v>0.009289642212411566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H4">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I4">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J4">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>6.62595689304478</v>
+        <v>27.86190165006578</v>
       </c>
       <c r="R4">
-        <v>6.62595689304478</v>
+        <v>250.757114850592</v>
       </c>
       <c r="S4">
-        <v>0.006027328853688585</v>
+        <v>0.01489520228761858</v>
       </c>
       <c r="T4">
-        <v>0.006027328853688585</v>
+        <v>0.01539961620785853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H5">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I5">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J5">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>4.815088738956179</v>
+        <v>25.08679563609777</v>
       </c>
       <c r="R5">
-        <v>4.815088738956179</v>
+        <v>225.78116072488</v>
       </c>
       <c r="S5">
-        <v>0.004380065212897156</v>
+        <v>0.01341160773736854</v>
       </c>
       <c r="T5">
-        <v>0.004380065212897156</v>
+        <v>0.01386578093387154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H6">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I6">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J6">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>2.124892328311246</v>
+        <v>5.106258248898667</v>
       </c>
       <c r="R6">
-        <v>2.124892328311246</v>
+        <v>30.637549493392</v>
       </c>
       <c r="S6">
-        <v>0.001932917018348814</v>
+        <v>0.002729847750718304</v>
       </c>
       <c r="T6">
-        <v>0.001932917018348814</v>
+        <v>0.001881527884178372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H7">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J7">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>123.5892097354217</v>
+        <v>175.8792972341334</v>
       </c>
       <c r="R7">
-        <v>123.5892097354217</v>
+        <v>1582.9136751072</v>
       </c>
       <c r="S7">
-        <v>0.1124234313423933</v>
+        <v>0.09402652207339289</v>
       </c>
       <c r="T7">
-        <v>0.1124234313423933</v>
+        <v>0.09721065382868918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H8">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J8">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>292.6841893921209</v>
+        <v>345.7510119912801</v>
       </c>
       <c r="R8">
-        <v>292.6841893921209</v>
+        <v>3111.75910792152</v>
       </c>
       <c r="S8">
-        <v>0.2662413728639484</v>
+        <v>0.1848413410341213</v>
       </c>
       <c r="T8">
-        <v>0.2662413728639484</v>
+        <v>0.1911008428289329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H9">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J9">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>301.6129286851813</v>
+        <v>573.1580147436268</v>
       </c>
       <c r="R9">
-        <v>301.6129286851813</v>
+        <v>5158.42213269264</v>
       </c>
       <c r="S9">
-        <v>0.2743634371690478</v>
+        <v>0.3064149992201282</v>
       </c>
       <c r="T9">
-        <v>0.2743634371690478</v>
+        <v>0.3167914941473183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H10">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J10">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>219.1823822397745</v>
+        <v>516.0702296510667</v>
       </c>
       <c r="R10">
-        <v>219.1823822397745</v>
+        <v>4644.6320668596</v>
       </c>
       <c r="S10">
-        <v>0.1993801526358746</v>
+        <v>0.2758953987353647</v>
       </c>
       <c r="T10">
-        <v>0.1993801526358746</v>
+        <v>0.2852383721952115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H11">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J11">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>96.7248970417196</v>
+        <v>105.04282433644</v>
       </c>
       <c r="R11">
-        <v>96.7248970417196</v>
+        <v>630.2569460186401</v>
       </c>
       <c r="S11">
-        <v>0.08798619915888338</v>
+        <v>0.05615675975765151</v>
       </c>
       <c r="T11">
-        <v>0.08798619915888338</v>
+        <v>0.03870564185908345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H12">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I12">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J12">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>5.118445738251192</v>
+        <v>0.04848248050222222</v>
       </c>
       <c r="R12">
-        <v>5.118445738251192</v>
+        <v>0.43634232452</v>
       </c>
       <c r="S12">
-        <v>0.004656015151046996</v>
+        <v>2.591913371729309E-05</v>
       </c>
       <c r="T12">
-        <v>0.004656015151046996</v>
+        <v>2.679686411632438E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H13">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I13">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J13">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>12.1215124285906</v>
+        <v>0.09530892470633334</v>
       </c>
       <c r="R13">
-        <v>12.1215124285906</v>
+        <v>0.8577803223570001</v>
       </c>
       <c r="S13">
-        <v>0.01102638347796676</v>
+        <v>5.09529367789184E-05</v>
       </c>
       <c r="T13">
-        <v>0.01102638347796676</v>
+        <v>5.267841657382902E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H14">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I14">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J14">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>12.4912960665017</v>
+        <v>0.1579954133971111</v>
       </c>
       <c r="R14">
-        <v>12.4912960665017</v>
+        <v>1.421958720574</v>
       </c>
       <c r="S14">
-        <v>0.011362758680278</v>
+        <v>8.446565035737026E-05</v>
       </c>
       <c r="T14">
-        <v>0.011362758680278</v>
+        <v>8.732601096205926E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H15">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I15">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J15">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>9.077435907848344</v>
+        <v>0.1422587265261111</v>
       </c>
       <c r="R15">
-        <v>9.077435907848344</v>
+        <v>1.280328538735</v>
       </c>
       <c r="S15">
-        <v>0.008257326790386259</v>
+        <v>7.605268783871519E-05</v>
       </c>
       <c r="T15">
-        <v>0.008257326790386259</v>
+        <v>7.862815030486775E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01928366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.057851</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528704512716912</v>
+      </c>
+      <c r="J16">
+        <v>0.0002560989497176267</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.5015745</v>
+      </c>
+      <c r="N16">
+        <v>3.003149</v>
+      </c>
+      <c r="O16">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P16">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q16">
+        <v>0.02895586213316667</v>
+      </c>
+      <c r="R16">
+        <v>0.173735172799</v>
+      </c>
+      <c r="S16">
+        <v>1.548004257939422E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.066950776054627E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.8840685</v>
+      </c>
+      <c r="H17">
+        <v>5.768137</v>
+      </c>
+      <c r="I17">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J17">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.514173333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.54252</v>
+      </c>
+      <c r="O17">
+        <v>0.1024996538225213</v>
+      </c>
+      <c r="P17">
+        <v>0.1046348067646137</v>
+      </c>
+      <c r="Q17">
+        <v>7.251048114206667</v>
+      </c>
+      <c r="R17">
+        <v>43.50628868524</v>
+      </c>
+      <c r="S17">
+        <v>0.003876470092202359</v>
+      </c>
+      <c r="T17">
+        <v>0.002671829067662494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.8840685</v>
+      </c>
+      <c r="H18">
+        <v>5.768137</v>
+      </c>
+      <c r="I18">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J18">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.942469</v>
+      </c>
+      <c r="N18">
+        <v>14.827407</v>
+      </c>
+      <c r="O18">
+        <v>0.2014981842389055</v>
+      </c>
+      <c r="P18">
+        <v>0.2056955588139349</v>
+      </c>
+      <c r="Q18">
+        <v>14.2544191551265</v>
+      </c>
+      <c r="R18">
+        <v>85.52651493075901</v>
+      </c>
+      <c r="S18">
+        <v>0.007620529979424902</v>
+      </c>
+      <c r="T18">
+        <v>0.005252395356016602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="H16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="I16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="J16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="N16">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="O16">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="P16">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="Q16">
-        <v>4.005860528648403</v>
-      </c>
-      <c r="R16">
-        <v>4.005860528648403</v>
-      </c>
-      <c r="S16">
-        <v>0.003643947453615219</v>
-      </c>
-      <c r="T16">
-        <v>0.003643947453615219</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.8840685</v>
+      </c>
+      <c r="H19">
+        <v>5.768137</v>
+      </c>
+      <c r="I19">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J19">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.193224666666667</v>
+      </c>
+      <c r="N19">
+        <v>24.579674</v>
+      </c>
+      <c r="O19">
+        <v>0.3340273643385007</v>
+      </c>
+      <c r="P19">
+        <v>0.3409854318354076</v>
+      </c>
+      <c r="Q19">
+        <v>23.62982117455634</v>
+      </c>
+      <c r="R19">
+        <v>141.778927047338</v>
+      </c>
+      <c r="S19">
+        <v>0.01263269718039647</v>
+      </c>
+      <c r="T19">
+        <v>0.008706995469268633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.8840685</v>
+      </c>
+      <c r="H20">
+        <v>5.768137</v>
+      </c>
+      <c r="I20">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J20">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.377161666666666</v>
+      </c>
+      <c r="N20">
+        <v>22.131485</v>
+      </c>
+      <c r="O20">
+        <v>0.3007575122211572</v>
+      </c>
+      <c r="P20">
+        <v>0.3070225410590818</v>
+      </c>
+      <c r="Q20">
+        <v>21.27623958224083</v>
+      </c>
+      <c r="R20">
+        <v>127.657437493445</v>
+      </c>
+      <c r="S20">
+        <v>0.0113744530605852</v>
+      </c>
+      <c r="T20">
+        <v>0.007839759779693851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.8840685</v>
+      </c>
+      <c r="H21">
+        <v>5.768137</v>
+      </c>
+      <c r="I21">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J21">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.5015745</v>
+      </c>
+      <c r="N21">
+        <v>3.003149</v>
+      </c>
+      <c r="O21">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P21">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q21">
+        <v>4.330643715853251</v>
+      </c>
+      <c r="R21">
+        <v>17.322574863413</v>
+      </c>
+      <c r="S21">
+        <v>0.002315197827966135</v>
+      </c>
+      <c r="T21">
+        <v>0.001063822275939812</v>
       </c>
     </row>
   </sheetData>
